--- a/data/pca/factorExposure/factorExposure_2011-12-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-12-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01042937929779292</v>
+        <v>-0.01135642081975429</v>
       </c>
       <c r="C2">
-        <v>-0.03154219241486097</v>
+        <v>0.02599266207325875</v>
       </c>
       <c r="D2">
-        <v>0.0207775573617988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0234121384312887</v>
+      </c>
+      <c r="E2">
+        <v>-0.007494801640164309</v>
+      </c>
+      <c r="F2">
+        <v>0.02718325365930174</v>
+      </c>
+      <c r="G2">
+        <v>-0.0009296608146814945</v>
+      </c>
+      <c r="H2">
+        <v>-0.02593646305625618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07486002459614105</v>
+        <v>-0.08761486338919451</v>
       </c>
       <c r="C4">
-        <v>-0.05505256387703356</v>
+        <v>0.03806353077136653</v>
       </c>
       <c r="D4">
-        <v>0.07893925200172756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06967618489939675</v>
+      </c>
+      <c r="E4">
+        <v>-0.008421440805255465</v>
+      </c>
+      <c r="F4">
+        <v>0.03822956641065633</v>
+      </c>
+      <c r="G4">
+        <v>0.01616648502419677</v>
+      </c>
+      <c r="H4">
+        <v>0.04077359484486631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1108096840831684</v>
+        <v>-0.1240088526255406</v>
       </c>
       <c r="C6">
-        <v>-0.05385360415164536</v>
+        <v>0.03918445543325325</v>
       </c>
       <c r="D6">
-        <v>-0.0002463181109985712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.008090842887687653</v>
+      </c>
+      <c r="E6">
+        <v>0.02692619793657036</v>
+      </c>
+      <c r="F6">
+        <v>0.05043875953815822</v>
+      </c>
+      <c r="G6">
+        <v>0.02774926724203258</v>
+      </c>
+      <c r="H6">
+        <v>-0.1244428532683131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05569360960953896</v>
+        <v>-0.06450295622423363</v>
       </c>
       <c r="C7">
-        <v>-0.03247235950068625</v>
+        <v>0.01731767437913575</v>
       </c>
       <c r="D7">
-        <v>0.02965972777645591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04995311103657021</v>
+      </c>
+      <c r="E7">
+        <v>-0.03133661414284285</v>
+      </c>
+      <c r="F7">
+        <v>0.03983082920688121</v>
+      </c>
+      <c r="G7">
+        <v>-0.03290019981451432</v>
+      </c>
+      <c r="H7">
+        <v>0.01918526625486251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03848292920553569</v>
+        <v>-0.04187226694004709</v>
       </c>
       <c r="C8">
-        <v>-0.01190276690354599</v>
+        <v>0.008124377665082444</v>
       </c>
       <c r="D8">
-        <v>0.06301650473814371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02489648831365903</v>
+      </c>
+      <c r="E8">
+        <v>-0.01269022489826198</v>
+      </c>
+      <c r="F8">
+        <v>0.06596976319057898</v>
+      </c>
+      <c r="G8">
+        <v>0.07406510674996768</v>
+      </c>
+      <c r="H8">
+        <v>-0.01817044217486157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0704885164264244</v>
+        <v>-0.07997747324547212</v>
       </c>
       <c r="C9">
-        <v>-0.04017084020788498</v>
+        <v>0.02432085415221432</v>
       </c>
       <c r="D9">
-        <v>0.0707388859978343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06305100656011665</v>
+      </c>
+      <c r="E9">
+        <v>-0.02383276451124403</v>
+      </c>
+      <c r="F9">
+        <v>0.03333521592061034</v>
+      </c>
+      <c r="G9">
+        <v>0.03127544833178391</v>
+      </c>
+      <c r="H9">
+        <v>0.0441085678009624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02929197011895279</v>
+        <v>-0.04460632323533532</v>
       </c>
       <c r="C10">
-        <v>-0.02300704570572687</v>
+        <v>0.0552237035788699</v>
       </c>
       <c r="D10">
-        <v>-0.1759112096248278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1775755987522893</v>
+      </c>
+      <c r="E10">
+        <v>-0.0403258968662374</v>
+      </c>
+      <c r="F10">
+        <v>0.05057576995828832</v>
+      </c>
+      <c r="G10">
+        <v>-0.03245431925828644</v>
+      </c>
+      <c r="H10">
+        <v>-0.05577691399426936</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07155421718516208</v>
+        <v>-0.07584120784530279</v>
       </c>
       <c r="C11">
-        <v>-0.04496123654661911</v>
+        <v>0.0227423381966659</v>
       </c>
       <c r="D11">
-        <v>0.05144677796748033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06502739591763522</v>
+      </c>
+      <c r="E11">
+        <v>0.003720011443744214</v>
+      </c>
+      <c r="F11">
+        <v>0.02988431602247789</v>
+      </c>
+      <c r="G11">
+        <v>0.04370858548797003</v>
+      </c>
+      <c r="H11">
+        <v>0.06941185866456598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06038071380237573</v>
+        <v>-0.06936486643883311</v>
       </c>
       <c r="C12">
-        <v>-0.05309454009674822</v>
+        <v>0.03434215796163245</v>
       </c>
       <c r="D12">
-        <v>0.04288468429541702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04995669670370485</v>
+      </c>
+      <c r="E12">
+        <v>-0.01199986281917889</v>
+      </c>
+      <c r="F12">
+        <v>0.02222001015276356</v>
+      </c>
+      <c r="G12">
+        <v>0.02553891770461111</v>
+      </c>
+      <c r="H12">
+        <v>0.0330178600156313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06776244967248005</v>
+        <v>-0.06722916739885446</v>
       </c>
       <c r="C13">
-        <v>-0.03421961536574729</v>
+        <v>0.01627375746728277</v>
       </c>
       <c r="D13">
-        <v>0.0413041587202106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03757106691222742</v>
+      </c>
+      <c r="E13">
+        <v>-0.006145553694249095</v>
+      </c>
+      <c r="F13">
+        <v>0.02905502102755431</v>
+      </c>
+      <c r="G13">
+        <v>0.02793784835695966</v>
+      </c>
+      <c r="H13">
+        <v>0.04653715378007168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03351944755967984</v>
+        <v>-0.04037512870746778</v>
       </c>
       <c r="C14">
-        <v>-0.03507659403929357</v>
+        <v>0.02962089719620216</v>
       </c>
       <c r="D14">
-        <v>-0.01067121072197249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01273267684129518</v>
+      </c>
+      <c r="E14">
+        <v>-0.02652853160170139</v>
+      </c>
+      <c r="F14">
+        <v>0.01667168693703912</v>
+      </c>
+      <c r="G14">
+        <v>0.02466331894646161</v>
+      </c>
+      <c r="H14">
+        <v>0.05486033195207746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04234874779269884</v>
+        <v>-0.04089893102707674</v>
       </c>
       <c r="C15">
-        <v>-0.01028162214156091</v>
+        <v>0.002789696438505039</v>
       </c>
       <c r="D15">
-        <v>0.01873503407510235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007568058164051571</v>
+      </c>
+      <c r="E15">
+        <v>-0.03688818423528882</v>
+      </c>
+      <c r="F15">
+        <v>0.002221644696994346</v>
+      </c>
+      <c r="G15">
+        <v>0.03474596599097288</v>
+      </c>
+      <c r="H15">
+        <v>0.02353943095539622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06083409992051672</v>
+        <v>-0.07112402609001436</v>
       </c>
       <c r="C16">
-        <v>-0.04208364099376081</v>
+        <v>0.02520625493916599</v>
       </c>
       <c r="D16">
-        <v>0.04851994133448471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06317188021588387</v>
+      </c>
+      <c r="E16">
+        <v>-0.006415295904729839</v>
+      </c>
+      <c r="F16">
+        <v>0.02882513763921639</v>
+      </c>
+      <c r="G16">
+        <v>0.02517922043530395</v>
+      </c>
+      <c r="H16">
+        <v>0.0530183064153872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06432737469233751</v>
+        <v>-0.06325169220289935</v>
       </c>
       <c r="C20">
-        <v>-0.02879710561222126</v>
+        <v>0.00979156507301459</v>
       </c>
       <c r="D20">
-        <v>0.0467731141295491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04027103206495992</v>
+      </c>
+      <c r="E20">
+        <v>-0.009253530109843248</v>
+      </c>
+      <c r="F20">
+        <v>0.02931596587748491</v>
+      </c>
+      <c r="G20">
+        <v>0.02406461215665267</v>
+      </c>
+      <c r="H20">
+        <v>0.04588488751087685</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02929092352030346</v>
+        <v>-0.02763446223297428</v>
       </c>
       <c r="C21">
-        <v>-0.002678798379700181</v>
+        <v>-0.006419142060836771</v>
       </c>
       <c r="D21">
-        <v>0.0172594256292799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02160938369108436</v>
+      </c>
+      <c r="E21">
+        <v>-0.04066057953792472</v>
+      </c>
+      <c r="F21">
+        <v>-0.01493447996000457</v>
+      </c>
+      <c r="G21">
+        <v>0.008367564134738065</v>
+      </c>
+      <c r="H21">
+        <v>-0.04708333811362648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07902856161788339</v>
+        <v>-0.07031236418346146</v>
       </c>
       <c r="C22">
-        <v>-0.06038842269012546</v>
+        <v>0.03004464447672028</v>
       </c>
       <c r="D22">
-        <v>0.1456450945787526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1038018114095322</v>
+      </c>
+      <c r="E22">
+        <v>-0.6108691314967324</v>
+      </c>
+      <c r="F22">
+        <v>-0.0657789148929076</v>
+      </c>
+      <c r="G22">
+        <v>-0.1734623786087164</v>
+      </c>
+      <c r="H22">
+        <v>-0.1381278804931556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08005645603044823</v>
+        <v>-0.07122137579206421</v>
       </c>
       <c r="C23">
-        <v>-0.05891040210007761</v>
+        <v>0.02855581055867947</v>
       </c>
       <c r="D23">
-        <v>0.146928504258853</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1048843785332835</v>
+      </c>
+      <c r="E23">
+        <v>-0.612940415013799</v>
+      </c>
+      <c r="F23">
+        <v>-0.06515140514741395</v>
+      </c>
+      <c r="G23">
+        <v>-0.1674503145191569</v>
+      </c>
+      <c r="H23">
+        <v>-0.1340953990251946</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07675149565938141</v>
+        <v>-0.08102942126143879</v>
       </c>
       <c r="C24">
-        <v>-0.05508613142152494</v>
+        <v>0.03181869068668348</v>
       </c>
       <c r="D24">
-        <v>0.0551769831782296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06282900886905425</v>
+      </c>
+      <c r="E24">
+        <v>-0.01126461871223675</v>
+      </c>
+      <c r="F24">
+        <v>0.03709114655356457</v>
+      </c>
+      <c r="G24">
+        <v>0.03915765267835171</v>
+      </c>
+      <c r="H24">
+        <v>0.03558744628644758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07498575163715208</v>
+        <v>-0.07930941836024613</v>
       </c>
       <c r="C25">
-        <v>-0.05639206018771067</v>
+        <v>0.03469683475648711</v>
       </c>
       <c r="D25">
-        <v>0.05638890827352496</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0521233559163078</v>
+      </c>
+      <c r="E25">
+        <v>-0.01900591071674594</v>
+      </c>
+      <c r="F25">
+        <v>0.0331451081817475</v>
+      </c>
+      <c r="G25">
+        <v>0.04977100891874463</v>
+      </c>
+      <c r="H25">
+        <v>0.03976934826083506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04675371181530322</v>
+        <v>-0.04582426603985804</v>
       </c>
       <c r="C26">
-        <v>-0.01591869072935543</v>
+        <v>0.004802475345359537</v>
       </c>
       <c r="D26">
-        <v>0.007996689048590641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01951189056639649</v>
+      </c>
+      <c r="E26">
+        <v>-0.04118101263330743</v>
+      </c>
+      <c r="F26">
+        <v>0.03281135722881246</v>
+      </c>
+      <c r="G26">
+        <v>0.01620842077154436</v>
+      </c>
+      <c r="H26">
+        <v>0.04653907830689565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04577773162221181</v>
+        <v>-0.06919546165237632</v>
       </c>
       <c r="C28">
-        <v>-0.06673118250118841</v>
+        <v>0.1122392128098014</v>
       </c>
       <c r="D28">
-        <v>-0.3048144890340344</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2981486807518319</v>
+      </c>
+      <c r="E28">
+        <v>-0.03679409158189981</v>
+      </c>
+      <c r="F28">
+        <v>0.05582949197425642</v>
+      </c>
+      <c r="G28">
+        <v>0.02059989748765429</v>
+      </c>
+      <c r="H28">
+        <v>-0.04874585652484902</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04525049220189262</v>
+        <v>-0.04733807267820483</v>
       </c>
       <c r="C29">
-        <v>-0.0318703920947201</v>
+        <v>0.02322962656171547</v>
       </c>
       <c r="D29">
-        <v>0.001721434683862359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01284218779030967</v>
+      </c>
+      <c r="E29">
+        <v>-0.05743541038598033</v>
+      </c>
+      <c r="F29">
+        <v>0.01260400610970742</v>
+      </c>
+      <c r="G29">
+        <v>0.01171162497293514</v>
+      </c>
+      <c r="H29">
+        <v>0.07031355014482459</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1285961504374604</v>
+        <v>-0.1275513735819146</v>
       </c>
       <c r="C30">
-        <v>-0.09254527161717747</v>
+        <v>0.05833478602283609</v>
       </c>
       <c r="D30">
-        <v>0.1122209940510568</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.0806129156395413</v>
+      </c>
+      <c r="E30">
+        <v>-0.05459937537835654</v>
+      </c>
+      <c r="F30">
+        <v>0.01401563572553076</v>
+      </c>
+      <c r="G30">
+        <v>0.06435475985843238</v>
+      </c>
+      <c r="H30">
+        <v>-0.03734762412589514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04840470216476934</v>
+        <v>-0.0492450014918736</v>
       </c>
       <c r="C31">
-        <v>-0.02423584528673991</v>
+        <v>0.01057009922115969</v>
       </c>
       <c r="D31">
-        <v>0.01869364979949894</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03424498290139932</v>
+      </c>
+      <c r="E31">
+        <v>-0.02518870911809891</v>
+      </c>
+      <c r="F31">
+        <v>0.007164094432441411</v>
+      </c>
+      <c r="G31">
+        <v>0.0006699204398061335</v>
+      </c>
+      <c r="H31">
+        <v>0.07017955381844916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03616302802365584</v>
+        <v>-0.03887659249608784</v>
       </c>
       <c r="C32">
-        <v>-0.02329840892852517</v>
+        <v>0.02146060078644402</v>
       </c>
       <c r="D32">
-        <v>0.02778896146640377</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01150987034215735</v>
+      </c>
+      <c r="E32">
+        <v>-0.05225648682506934</v>
+      </c>
+      <c r="F32">
+        <v>-0.006633133219021651</v>
+      </c>
+      <c r="G32">
+        <v>0.03608274783396504</v>
+      </c>
+      <c r="H32">
+        <v>0.02829033848163854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08660236727251783</v>
+        <v>-0.09463976454275252</v>
       </c>
       <c r="C33">
-        <v>-0.04768306740637634</v>
+        <v>0.02567588181523136</v>
       </c>
       <c r="D33">
-        <v>0.04553776567553525</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04884743145452351</v>
+      </c>
+      <c r="E33">
+        <v>-0.01448874470127684</v>
+      </c>
+      <c r="F33">
+        <v>0.003424951844288956</v>
+      </c>
+      <c r="G33">
+        <v>0.01637490274848252</v>
+      </c>
+      <c r="H33">
+        <v>0.06639098199707878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05978109026143609</v>
+        <v>-0.06445489017176791</v>
       </c>
       <c r="C34">
-        <v>-0.02675381806029927</v>
+        <v>0.009185472331453608</v>
       </c>
       <c r="D34">
-        <v>0.04834890614396073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04866404808245749</v>
+      </c>
+      <c r="E34">
+        <v>-0.007790054963876146</v>
+      </c>
+      <c r="F34">
+        <v>0.02311493023105873</v>
+      </c>
+      <c r="G34">
+        <v>0.02973065521327574</v>
+      </c>
+      <c r="H34">
+        <v>0.04600341976829589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03712711542818988</v>
+        <v>-0.03839794131909387</v>
       </c>
       <c r="C35">
-        <v>-0.0116674698494271</v>
+        <v>0.004893461747551051</v>
       </c>
       <c r="D35">
-        <v>0.01951862744926289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01623532519396947</v>
+      </c>
+      <c r="E35">
+        <v>-0.02329015233598455</v>
+      </c>
+      <c r="F35">
+        <v>-0.01788746987651352</v>
+      </c>
+      <c r="G35">
+        <v>-0.003835038608440364</v>
+      </c>
+      <c r="H35">
+        <v>0.03398914883781564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02465528312957233</v>
+        <v>-0.02888592204096584</v>
       </c>
       <c r="C36">
-        <v>-0.02017729105919292</v>
+        <v>0.01543680036841221</v>
       </c>
       <c r="D36">
-        <v>0.01979669366020359</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01768376619381127</v>
+      </c>
+      <c r="E36">
+        <v>-0.03024690718368107</v>
+      </c>
+      <c r="F36">
+        <v>0.03030781048750771</v>
+      </c>
+      <c r="G36">
+        <v>0.007653238730175091</v>
+      </c>
+      <c r="H36">
+        <v>0.04944027307259825</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04498463911613593</v>
+        <v>-0.04598429041499861</v>
       </c>
       <c r="C38">
-        <v>-0.00410413249523356</v>
+        <v>-0.004276031095505127</v>
       </c>
       <c r="D38">
-        <v>0.01525417154410176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01970053694633934</v>
+      </c>
+      <c r="E38">
+        <v>-0.04885923233680018</v>
+      </c>
+      <c r="F38">
+        <v>-0.001416686104609628</v>
+      </c>
+      <c r="G38">
+        <v>0.006927017293486351</v>
+      </c>
+      <c r="H38">
+        <v>0.02351291605385846</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09026125371085585</v>
+        <v>-0.1002453145134154</v>
       </c>
       <c r="C39">
-        <v>-0.06892822113853281</v>
+        <v>0.04513712090961032</v>
       </c>
       <c r="D39">
-        <v>0.06034357195821122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06875357236535362</v>
+      </c>
+      <c r="E39">
+        <v>0.0002654574911273115</v>
+      </c>
+      <c r="F39">
+        <v>-5.935149093257197e-05</v>
+      </c>
+      <c r="G39">
+        <v>0.04711774054186402</v>
+      </c>
+      <c r="H39">
+        <v>0.02383452308147956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0803130279628512</v>
+        <v>-0.06239287704189748</v>
       </c>
       <c r="C40">
-        <v>-0.03639141504867379</v>
+        <v>0.004045983803297387</v>
       </c>
       <c r="D40">
-        <v>0.01268252843156367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03454853499218903</v>
+      </c>
+      <c r="E40">
+        <v>-0.03351436847714588</v>
+      </c>
+      <c r="F40">
+        <v>-0.03533653998905101</v>
+      </c>
+      <c r="G40">
+        <v>0.04994479671781396</v>
+      </c>
+      <c r="H40">
+        <v>-0.07696124482512662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04520523047554784</v>
+        <v>-0.04668708745976122</v>
       </c>
       <c r="C41">
-        <v>-0.01223555217737367</v>
+        <v>0.0002747569980540474</v>
       </c>
       <c r="D41">
-        <v>0.03522905309947442</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03153389781874014</v>
+      </c>
+      <c r="E41">
+        <v>-0.004183254602055145</v>
+      </c>
+      <c r="F41">
+        <v>-0.01484095788029782</v>
+      </c>
+      <c r="G41">
+        <v>0.01043114135695697</v>
+      </c>
+      <c r="H41">
+        <v>0.02763419010551374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05392623522224608</v>
+        <v>-0.06049256074042933</v>
       </c>
       <c r="C43">
-        <v>-0.02860402076461301</v>
+        <v>0.01719709339872681</v>
       </c>
       <c r="D43">
-        <v>0.01089269618968686</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02821781560012283</v>
+      </c>
+      <c r="E43">
+        <v>-0.02255835352225771</v>
+      </c>
+      <c r="F43">
+        <v>0.01579373632302698</v>
+      </c>
+      <c r="G43">
+        <v>-0.006189055993563451</v>
+      </c>
+      <c r="H43">
+        <v>0.06451060204695185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09650431165382967</v>
+        <v>-0.09354091733201031</v>
       </c>
       <c r="C44">
-        <v>-0.08733132453241857</v>
+        <v>0.0551495950367638</v>
       </c>
       <c r="D44">
-        <v>0.07268242552446863</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.07254823607700353</v>
+      </c>
+      <c r="E44">
+        <v>-0.05975135304925332</v>
+      </c>
+      <c r="F44">
+        <v>0.09047826021356713</v>
+      </c>
+      <c r="G44">
+        <v>0.06940666839163789</v>
+      </c>
+      <c r="H44">
+        <v>0.07976847659798626</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02664014481521568</v>
+        <v>-0.03474368221109313</v>
       </c>
       <c r="C46">
-        <v>-0.01733737184313001</v>
+        <v>0.01136606230892642</v>
       </c>
       <c r="D46">
-        <v>0.03227535480308359</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03698237639354481</v>
+      </c>
+      <c r="E46">
+        <v>-0.03136264950161422</v>
+      </c>
+      <c r="F46">
+        <v>0.0158230994867239</v>
+      </c>
+      <c r="G46">
+        <v>0.004567347749503643</v>
+      </c>
+      <c r="H46">
+        <v>0.02295656185702991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03548634079765013</v>
+        <v>-0.04150390542703016</v>
       </c>
       <c r="C47">
-        <v>-0.02505101405836998</v>
+        <v>0.01951999073021888</v>
       </c>
       <c r="D47">
-        <v>-0.002190345065375447</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.006420076704925974</v>
+      </c>
+      <c r="E47">
+        <v>-0.03930919205807698</v>
+      </c>
+      <c r="F47">
+        <v>-0.009659897603139197</v>
+      </c>
+      <c r="G47">
+        <v>-0.03069181080088758</v>
+      </c>
+      <c r="H47">
+        <v>0.0285730393820714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03692467355129768</v>
+        <v>-0.04016472134495188</v>
       </c>
       <c r="C48">
-        <v>-0.02447591598586502</v>
+        <v>0.01485438844861344</v>
       </c>
       <c r="D48">
-        <v>0.02800317339372736</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02026240675606645</v>
+      </c>
+      <c r="E48">
+        <v>-0.03891726875811708</v>
+      </c>
+      <c r="F48">
+        <v>0.01040522295277408</v>
+      </c>
+      <c r="G48">
+        <v>0.01842112393950507</v>
+      </c>
+      <c r="H48">
+        <v>0.02740864988651781</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1625645565211887</v>
+        <v>-0.1985634269939223</v>
       </c>
       <c r="C49">
-        <v>-0.05143070887974464</v>
+        <v>0.03473992153786474</v>
       </c>
       <c r="D49">
-        <v>0.002097019711970871</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0246043351271723</v>
+      </c>
+      <c r="E49">
+        <v>0.1671005125390923</v>
+      </c>
+      <c r="F49">
+        <v>0.03940583402989976</v>
+      </c>
+      <c r="G49">
+        <v>-0.1626408879027023</v>
+      </c>
+      <c r="H49">
+        <v>-0.2203339268629023</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04264657266562762</v>
+        <v>-0.0452969306289101</v>
       </c>
       <c r="C50">
-        <v>-0.02561861463159601</v>
+        <v>0.013829605634611</v>
       </c>
       <c r="D50">
-        <v>0.03621892979736548</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03995008885203937</v>
+      </c>
+      <c r="E50">
+        <v>-0.03654127636289899</v>
+      </c>
+      <c r="F50">
+        <v>0.005187891549839448</v>
+      </c>
+      <c r="G50">
+        <v>0.004947335019286499</v>
+      </c>
+      <c r="H50">
+        <v>0.07988148772389851</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02942271344547817</v>
+        <v>-0.03521269160690122</v>
       </c>
       <c r="C51">
-        <v>-0.01256989118665923</v>
+        <v>0.007955372382086365</v>
       </c>
       <c r="D51">
-        <v>-0.002992969605907991</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0003956731429579393</v>
+      </c>
+      <c r="E51">
+        <v>-0.01149095865134117</v>
+      </c>
+      <c r="F51">
+        <v>0.009748823506744872</v>
+      </c>
+      <c r="G51">
+        <v>-0.01413494069911467</v>
+      </c>
+      <c r="H51">
+        <v>-0.01911810901122198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1542822188179998</v>
+        <v>-0.1599484429069894</v>
       </c>
       <c r="C53">
-        <v>-0.07452459577635696</v>
+        <v>0.04557560140994966</v>
       </c>
       <c r="D53">
-        <v>-0.002976603398342844</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02657639337590901</v>
+      </c>
+      <c r="E53">
+        <v>0.03166677176325069</v>
+      </c>
+      <c r="F53">
+        <v>-0.0005532405104672156</v>
+      </c>
+      <c r="G53">
+        <v>0.02671772690928903</v>
+      </c>
+      <c r="H53">
+        <v>0.1971400543340261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05769058700317019</v>
+        <v>-0.05798385566637106</v>
       </c>
       <c r="C54">
-        <v>-0.02334685867373976</v>
+        <v>0.01275923310098741</v>
       </c>
       <c r="D54">
-        <v>0.0149864017180738</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0148926354691263</v>
+      </c>
+      <c r="E54">
+        <v>-0.05282091659926125</v>
+      </c>
+      <c r="F54">
+        <v>0.01177883994441727</v>
+      </c>
+      <c r="G54">
+        <v>0.05765625019402443</v>
+      </c>
+      <c r="H54">
+        <v>0.03622379360092882</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.10192749524538</v>
+        <v>-0.103309354083606</v>
       </c>
       <c r="C55">
-        <v>-0.05313474964915998</v>
+        <v>0.03154062631513582</v>
       </c>
       <c r="D55">
-        <v>0.01535420151318453</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0304103156797043</v>
+      </c>
+      <c r="E55">
+        <v>-0.002665416407272176</v>
+      </c>
+      <c r="F55">
+        <v>0.01409751263308747</v>
+      </c>
+      <c r="G55">
+        <v>0.03084899871443798</v>
+      </c>
+      <c r="H55">
+        <v>0.1576536299976205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1494391667567796</v>
+        <v>-0.1560338012061705</v>
       </c>
       <c r="C56">
-        <v>-0.08119734782483003</v>
+        <v>0.04889974221992988</v>
       </c>
       <c r="D56">
-        <v>0.002391030937322901</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04164529816935349</v>
+      </c>
+      <c r="E56">
+        <v>0.01414410359352673</v>
+      </c>
+      <c r="F56">
+        <v>0.02393224431075561</v>
+      </c>
+      <c r="G56">
+        <v>0.03167531923330461</v>
+      </c>
+      <c r="H56">
+        <v>0.1998556651108034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1316849794581938</v>
+        <v>-0.0999875421151642</v>
       </c>
       <c r="C58">
-        <v>0.01147358441633273</v>
+        <v>-0.05511643871775815</v>
       </c>
       <c r="D58">
-        <v>0.0491464469578216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03325344238760568</v>
+      </c>
+      <c r="E58">
+        <v>-0.1223918320195401</v>
+      </c>
+      <c r="F58">
+        <v>0.02856296573195408</v>
+      </c>
+      <c r="G58">
+        <v>-0.09604468737538936</v>
+      </c>
+      <c r="H58">
+        <v>-0.143742931309124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1194783532405739</v>
+        <v>-0.1449628073331919</v>
       </c>
       <c r="C59">
-        <v>-0.07172944610271834</v>
+        <v>0.1141280044043459</v>
       </c>
       <c r="D59">
-        <v>-0.3970162250517375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3543942833124644</v>
+      </c>
+      <c r="E59">
+        <v>-0.03311735691209131</v>
+      </c>
+      <c r="F59">
+        <v>0.001386067243687103</v>
+      </c>
+      <c r="G59">
+        <v>-0.004673818840439543</v>
+      </c>
+      <c r="H59">
+        <v>0.01182697988337296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2092968362729764</v>
+        <v>-0.2399131266646339</v>
       </c>
       <c r="C60">
-        <v>-0.09270889407703425</v>
+        <v>0.06021876229469632</v>
       </c>
       <c r="D60">
-        <v>0.0108067817889001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.04305100748319544</v>
+      </c>
+      <c r="E60">
+        <v>0.1140975090634293</v>
+      </c>
+      <c r="F60">
+        <v>0.04701580969946813</v>
+      </c>
+      <c r="G60">
+        <v>-0.03825791647265935</v>
+      </c>
+      <c r="H60">
+        <v>-0.1455504751800484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08029620008672882</v>
+        <v>-0.08583896333329794</v>
       </c>
       <c r="C61">
-        <v>-0.04523905790836329</v>
+        <v>0.02716675299132023</v>
       </c>
       <c r="D61">
-        <v>0.03424321766692917</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04425283068588261</v>
+      </c>
+      <c r="E61">
+        <v>-0.005973807694669626</v>
+      </c>
+      <c r="F61">
+        <v>0.005149191242779123</v>
+      </c>
+      <c r="G61">
+        <v>0.03170950254197209</v>
+      </c>
+      <c r="H61">
+        <v>0.06063557099290626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1328640024260876</v>
+        <v>-0.1364579295816777</v>
       </c>
       <c r="C62">
-        <v>-0.06015697870641384</v>
+        <v>0.02944439280173676</v>
       </c>
       <c r="D62">
-        <v>0.001196281975342684</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04297733496986727</v>
+      </c>
+      <c r="E62">
+        <v>0.04772209383305728</v>
+      </c>
+      <c r="F62">
+        <v>-0.006192477590732846</v>
+      </c>
+      <c r="G62">
+        <v>0.06475395488261555</v>
+      </c>
+      <c r="H62">
+        <v>0.1947195244033604</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05228975108418602</v>
+        <v>-0.05137440137431889</v>
       </c>
       <c r="C63">
-        <v>-0.02545888455864488</v>
+        <v>0.0149323091935243</v>
       </c>
       <c r="D63">
-        <v>0.02324556914801527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02057862583164483</v>
+      </c>
+      <c r="E63">
+        <v>-0.04574720933594442</v>
+      </c>
+      <c r="F63">
+        <v>-0.003243963045045807</v>
+      </c>
+      <c r="G63">
+        <v>0.02724877433134214</v>
+      </c>
+      <c r="H63">
+        <v>0.03514108226885979</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1055311550707022</v>
+        <v>-0.1090089666297353</v>
       </c>
       <c r="C64">
-        <v>-0.03541062536821305</v>
+        <v>0.01723667344084479</v>
       </c>
       <c r="D64">
-        <v>0.02170074821424331</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02856058419125843</v>
+      </c>
+      <c r="E64">
+        <v>-0.03629950627678458</v>
+      </c>
+      <c r="F64">
+        <v>0.04167811200338003</v>
+      </c>
+      <c r="G64">
+        <v>0.0617878585184737</v>
+      </c>
+      <c r="H64">
+        <v>0.02443120605580525</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1258266292847739</v>
+        <v>-0.1281751912705357</v>
       </c>
       <c r="C65">
-        <v>-0.05697387903031818</v>
+        <v>0.03915634351524089</v>
       </c>
       <c r="D65">
-        <v>0.009390206143139372</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01146368647021736</v>
+      </c>
+      <c r="E65">
+        <v>0.01089948443852099</v>
+      </c>
+      <c r="F65">
+        <v>0.04305731475194595</v>
+      </c>
+      <c r="G65">
+        <v>0.05889860353083446</v>
+      </c>
+      <c r="H65">
+        <v>-0.1532271020536335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1491604790034076</v>
+        <v>-0.152542009135663</v>
       </c>
       <c r="C66">
-        <v>-0.07203729126877227</v>
+        <v>0.03398585382077678</v>
       </c>
       <c r="D66">
-        <v>0.09525652163979607</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1007142602131511</v>
+      </c>
+      <c r="E66">
+        <v>0.02754064096611401</v>
+      </c>
+      <c r="F66">
+        <v>-0.001319616837483615</v>
+      </c>
+      <c r="G66">
+        <v>0.07202611658637641</v>
+      </c>
+      <c r="H66">
+        <v>0.08412273817394759</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07610345471861021</v>
+        <v>-0.08581931168826215</v>
       </c>
       <c r="C67">
-        <v>-0.01125760383852029</v>
+        <v>-0.0001856984832092101</v>
       </c>
       <c r="D67">
-        <v>0.02010828881429786</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03134633916933614</v>
+      </c>
+      <c r="E67">
+        <v>-0.02086650326206774</v>
+      </c>
+      <c r="F67">
+        <v>0.01477012415039975</v>
+      </c>
+      <c r="G67">
+        <v>-0.00925732018109314</v>
+      </c>
+      <c r="H67">
+        <v>0.02170546987520781</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05445672394558784</v>
+        <v>-0.06285549731009744</v>
       </c>
       <c r="C68">
-        <v>-0.0464224271589781</v>
+        <v>0.08353642409272055</v>
       </c>
       <c r="D68">
-        <v>-0.2605216935665608</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2641349261987818</v>
+      </c>
+      <c r="E68">
+        <v>-0.04622482882033788</v>
+      </c>
+      <c r="F68">
+        <v>0.0155794450988837</v>
+      </c>
+      <c r="G68">
+        <v>0.0008502180643249305</v>
+      </c>
+      <c r="H68">
+        <v>0.01911936130437021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05450319083046848</v>
+        <v>-0.05327814075160737</v>
       </c>
       <c r="C69">
-        <v>-0.01926335029817277</v>
+        <v>0.005208367274983554</v>
       </c>
       <c r="D69">
-        <v>0.02165666799501425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01931602027682552</v>
+      </c>
+      <c r="E69">
+        <v>-0.0237625566745669</v>
+      </c>
+      <c r="F69">
+        <v>-0.01433320830122525</v>
+      </c>
+      <c r="G69">
+        <v>0.001581763787391803</v>
+      </c>
+      <c r="H69">
+        <v>0.04577687894334328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.002606446974414748</v>
+        <v>-0.02745180795688066</v>
       </c>
       <c r="C70">
-        <v>0.00711914358311849</v>
+        <v>-0.002222402174903324</v>
       </c>
       <c r="D70">
-        <v>-0.0129004911288747</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.00742047265860375</v>
+      </c>
+      <c r="E70">
+        <v>0.02217667238884173</v>
+      </c>
+      <c r="F70">
+        <v>-0.00847085824053014</v>
+      </c>
+      <c r="G70">
+        <v>-0.02509570991239911</v>
+      </c>
+      <c r="H70">
+        <v>-0.03425859170569046</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05445562587992189</v>
+        <v>-0.06922530762871745</v>
       </c>
       <c r="C71">
-        <v>-0.04766466551245272</v>
+        <v>0.09461230205834763</v>
       </c>
       <c r="D71">
-        <v>-0.2962265845293223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2931819243496454</v>
+      </c>
+      <c r="E71">
+        <v>-0.04529955623864335</v>
+      </c>
+      <c r="F71">
+        <v>0.04306568750230289</v>
+      </c>
+      <c r="G71">
+        <v>0.003963914039015714</v>
+      </c>
+      <c r="H71">
+        <v>0.01227174931148493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1424063184410954</v>
+        <v>-0.1444414216698683</v>
       </c>
       <c r="C72">
-        <v>-0.06439545013690252</v>
+        <v>0.03547927655387634</v>
       </c>
       <c r="D72">
-        <v>-0.007869120726320018</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002828202513248465</v>
+      </c>
+      <c r="E72">
+        <v>0.05068961861742385</v>
+      </c>
+      <c r="F72">
+        <v>-0.1578208368879797</v>
+      </c>
+      <c r="G72">
+        <v>0.1144271199246727</v>
+      </c>
+      <c r="H72">
+        <v>-0.009829728004314219</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2868571253999219</v>
+        <v>-0.2897687801083234</v>
       </c>
       <c r="C73">
-        <v>-0.09560469648790096</v>
+        <v>0.02414193516320246</v>
       </c>
       <c r="D73">
-        <v>0.03912750925142578</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09459337731860061</v>
+      </c>
+      <c r="E73">
+        <v>0.2573878015628907</v>
+      </c>
+      <c r="F73">
+        <v>0.07822928587919963</v>
+      </c>
+      <c r="G73">
+        <v>-0.2847394107375483</v>
+      </c>
+      <c r="H73">
+        <v>-0.3831934049513536</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08354707149611008</v>
+        <v>-0.09188437696839583</v>
       </c>
       <c r="C74">
-        <v>-0.07516230744269312</v>
+        <v>0.05431092772009648</v>
       </c>
       <c r="D74">
-        <v>0.004174348585745451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0386388804307797</v>
+      </c>
+      <c r="E74">
+        <v>0.004018286093310471</v>
+      </c>
+      <c r="F74">
+        <v>-0.0003573336460808926</v>
+      </c>
+      <c r="G74">
+        <v>-0.01552319633942611</v>
+      </c>
+      <c r="H74">
+        <v>0.134063165350186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1002473727798599</v>
+        <v>-0.1031549743984602</v>
       </c>
       <c r="C75">
-        <v>-0.04768129670537689</v>
+        <v>0.02110062409498807</v>
       </c>
       <c r="D75">
-        <v>0.01418797102566516</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02497627056388895</v>
+      </c>
+      <c r="E75">
+        <v>0.0009230400016267281</v>
+      </c>
+      <c r="F75">
+        <v>-0.000577417815213199</v>
+      </c>
+      <c r="G75">
+        <v>-0.002074458954604064</v>
+      </c>
+      <c r="H75">
+        <v>0.09721139660566495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1322016789197525</v>
+        <v>-0.1414861282503695</v>
       </c>
       <c r="C76">
-        <v>-0.07655204814068474</v>
+        <v>0.04850355921095235</v>
       </c>
       <c r="D76">
-        <v>0.02453180281407286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0529075832459649</v>
+      </c>
+      <c r="E76">
+        <v>-0.0158640826843945</v>
+      </c>
+      <c r="F76">
+        <v>0.03445656426239398</v>
+      </c>
+      <c r="G76">
+        <v>0.04458103833858628</v>
+      </c>
+      <c r="H76">
+        <v>0.2183474986322703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1192829165736406</v>
+        <v>-0.1031644833352679</v>
       </c>
       <c r="C77">
-        <v>-0.02607641637214252</v>
+        <v>-0.009426488650162065</v>
       </c>
       <c r="D77">
-        <v>0.07979611817901393</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04100949025390858</v>
+      </c>
+      <c r="E77">
+        <v>-0.04624665117534996</v>
+      </c>
+      <c r="F77">
+        <v>0.0596095464392727</v>
+      </c>
+      <c r="G77">
+        <v>0.7717157355078825</v>
+      </c>
+      <c r="H77">
+        <v>-0.4065935908694457</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1080725379374011</v>
+        <v>-0.1527536881492224</v>
       </c>
       <c r="C78">
-        <v>-0.04203880904395653</v>
+        <v>0.03621046864755832</v>
       </c>
       <c r="D78">
-        <v>0.0909045992937864</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07934718752001621</v>
+      </c>
+      <c r="E78">
+        <v>-0.05373032176786219</v>
+      </c>
+      <c r="F78">
+        <v>0.0551121168420237</v>
+      </c>
+      <c r="G78">
+        <v>0.04237928359141692</v>
+      </c>
+      <c r="H78">
+        <v>-0.07456524699857288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.146663322549629</v>
+        <v>-0.1476616502773506</v>
       </c>
       <c r="C79">
-        <v>-0.06964890659045316</v>
+        <v>0.03408616594523586</v>
       </c>
       <c r="D79">
-        <v>0.01930694064973802</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03891115275657477</v>
+      </c>
+      <c r="E79">
+        <v>0.01491068518677747</v>
+      </c>
+      <c r="F79">
+        <v>0.01796670708124798</v>
+      </c>
+      <c r="G79">
+        <v>0.03736071656348045</v>
+      </c>
+      <c r="H79">
+        <v>0.1537223531700752</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04120226847695767</v>
+        <v>-0.04207405149411082</v>
       </c>
       <c r="C80">
-        <v>-0.01928714851473957</v>
+        <v>0.01099761065294454</v>
       </c>
       <c r="D80">
-        <v>0.03264364495226452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01550267264420284</v>
+      </c>
+      <c r="E80">
+        <v>0.03933208703697615</v>
+      </c>
+      <c r="F80">
+        <v>0.003181940812259314</v>
+      </c>
+      <c r="G80">
+        <v>-0.01783266660590076</v>
+      </c>
+      <c r="H80">
+        <v>0.04334895544536321</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1236320531566996</v>
+        <v>-0.126067432649895</v>
       </c>
       <c r="C81">
-        <v>-0.05932375777709843</v>
+        <v>0.03268091295948433</v>
       </c>
       <c r="D81">
-        <v>0.02586298850633102</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02791871670221312</v>
+      </c>
+      <c r="E81">
+        <v>-0.00888773919503133</v>
+      </c>
+      <c r="F81">
+        <v>0.01368648406761248</v>
+      </c>
+      <c r="G81">
+        <v>-0.003753780239933946</v>
+      </c>
+      <c r="H81">
+        <v>0.1452018953896334</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1328131409398567</v>
+        <v>-0.1300722074639323</v>
       </c>
       <c r="C82">
-        <v>-0.06736896625251987</v>
+        <v>0.03752478080235049</v>
       </c>
       <c r="D82">
-        <v>0.004031327186214202</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03738655035121315</v>
+      </c>
+      <c r="E82">
+        <v>0.02103763469761074</v>
+      </c>
+      <c r="F82">
+        <v>0.0416955232039568</v>
+      </c>
+      <c r="G82">
+        <v>0.02475428744090823</v>
+      </c>
+      <c r="H82">
+        <v>0.2154444021360903</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06418603612765333</v>
+        <v>-0.07931427582946515</v>
       </c>
       <c r="C83">
-        <v>0.03027982800185286</v>
+        <v>-0.0398915671575496</v>
       </c>
       <c r="D83">
-        <v>0.02096356795513309</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01868619152383997</v>
+      </c>
+      <c r="E83">
+        <v>-0.02226728745548146</v>
+      </c>
+      <c r="F83">
+        <v>0.03406258451440184</v>
+      </c>
+      <c r="G83">
+        <v>-0.03981252056584066</v>
+      </c>
+      <c r="H83">
+        <v>-0.02911990236983739</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02714458560068118</v>
+        <v>-0.03357376175197451</v>
       </c>
       <c r="C84">
-        <v>-0.02484993203246001</v>
+        <v>0.01443752732162812</v>
       </c>
       <c r="D84">
-        <v>0.0388714090736535</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04020762857136154</v>
+      </c>
+      <c r="E84">
+        <v>-0.01762100883159835</v>
+      </c>
+      <c r="F84">
+        <v>-0.0364721384627197</v>
+      </c>
+      <c r="G84">
+        <v>-0.03297913898337619</v>
+      </c>
+      <c r="H84">
+        <v>0.03911628064635475</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1184725472833767</v>
+        <v>-0.1221897516774084</v>
       </c>
       <c r="C85">
-        <v>-0.03987544314154649</v>
+        <v>0.01474024682324034</v>
       </c>
       <c r="D85">
-        <v>0.05044988685222946</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03869099224475221</v>
+      </c>
+      <c r="E85">
+        <v>-0.01750364876801807</v>
+      </c>
+      <c r="F85">
+        <v>0.03381339557778865</v>
+      </c>
+      <c r="G85">
+        <v>-0.001764625886344118</v>
+      </c>
+      <c r="H85">
+        <v>0.1434658678894647</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05254634056288091</v>
+        <v>-0.05655807632170212</v>
       </c>
       <c r="C86">
-        <v>-0.02446030644326963</v>
+        <v>0.009976751287967319</v>
       </c>
       <c r="D86">
-        <v>0.06140665958748036</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03570269931176224</v>
+      </c>
+      <c r="E86">
+        <v>-0.03928287942820766</v>
+      </c>
+      <c r="F86">
+        <v>0.02197108161828127</v>
+      </c>
+      <c r="G86">
+        <v>-0.04677845649045274</v>
+      </c>
+      <c r="H86">
+        <v>-0.03929483194550258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1228400912031003</v>
+        <v>-0.1256245403178978</v>
       </c>
       <c r="C87">
-        <v>-0.07292760281951355</v>
+        <v>0.03490049914241605</v>
       </c>
       <c r="D87">
-        <v>0.0665414173075369</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06830404279423037</v>
+      </c>
+      <c r="E87">
+        <v>-0.01904199512158864</v>
+      </c>
+      <c r="F87">
+        <v>0.01702609963131417</v>
+      </c>
+      <c r="G87">
+        <v>0.1455090546441451</v>
+      </c>
+      <c r="H87">
+        <v>-0.08685275781508053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05373211200990163</v>
+        <v>-0.06237031418307022</v>
       </c>
       <c r="C88">
-        <v>-0.03055920227455589</v>
+        <v>0.01929556109198833</v>
       </c>
       <c r="D88">
-        <v>0.02377792978814208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03895560395405632</v>
+      </c>
+      <c r="E88">
+        <v>-0.007378127863643405</v>
+      </c>
+      <c r="F88">
+        <v>0.01914788306037902</v>
+      </c>
+      <c r="G88">
+        <v>0.01680821557523355</v>
+      </c>
+      <c r="H88">
+        <v>0.04164406208964191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08384873883783332</v>
+        <v>-0.1058064801327507</v>
       </c>
       <c r="C89">
-        <v>-0.06809317063053871</v>
+        <v>0.1197907973503658</v>
       </c>
       <c r="D89">
-        <v>-0.321902099558418</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3397811744528562</v>
+      </c>
+      <c r="E89">
+        <v>-0.0645246875553052</v>
+      </c>
+      <c r="F89">
+        <v>0.07219036726154454</v>
+      </c>
+      <c r="G89">
+        <v>-0.01975814291538007</v>
+      </c>
+      <c r="H89">
+        <v>0.02059384461952068</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.06611522965509582</v>
+        <v>-0.08328410725146031</v>
       </c>
       <c r="C90">
-        <v>-0.05656595020594025</v>
+        <v>0.09796565854545468</v>
       </c>
       <c r="D90">
-        <v>-0.2841964592770689</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2822048802202481</v>
+      </c>
+      <c r="E90">
+        <v>-0.05099828615415534</v>
+      </c>
+      <c r="F90">
+        <v>0.02971758561520123</v>
+      </c>
+      <c r="G90">
+        <v>0.02623425204056951</v>
+      </c>
+      <c r="H90">
+        <v>-0.01210101246879823</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08891906064544611</v>
+        <v>-0.09003154237127435</v>
       </c>
       <c r="C91">
-        <v>-0.04835962752304535</v>
+        <v>0.02389801196067069</v>
       </c>
       <c r="D91">
-        <v>0.01507851162598917</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03301948228149446</v>
+      </c>
+      <c r="E91">
+        <v>-0.007535053536386753</v>
+      </c>
+      <c r="F91">
+        <v>0.001701907238376772</v>
+      </c>
+      <c r="G91">
+        <v>-0.01620673868977534</v>
+      </c>
+      <c r="H91">
+        <v>0.09062070670384977</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06772526695571275</v>
+        <v>-0.08300917652917585</v>
       </c>
       <c r="C92">
-        <v>-0.06246535958231818</v>
+        <v>0.1112454053022822</v>
       </c>
       <c r="D92">
-        <v>-0.3360289587704324</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3295336785404199</v>
+      </c>
+      <c r="E92">
+        <v>-0.0509212624944403</v>
+      </c>
+      <c r="F92">
+        <v>0.03522078383330265</v>
+      </c>
+      <c r="G92">
+        <v>0.0004838113345871347</v>
+      </c>
+      <c r="H92">
+        <v>0.01973055014403422</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05980545422376167</v>
+        <v>-0.07988068463209953</v>
       </c>
       <c r="C93">
-        <v>-0.05948213298791171</v>
+        <v>0.1083062046125076</v>
       </c>
       <c r="D93">
-        <v>-0.3030411320434481</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2974390801607551</v>
+      </c>
+      <c r="E93">
+        <v>-0.02703297736444264</v>
+      </c>
+      <c r="F93">
+        <v>0.02882631165300392</v>
+      </c>
+      <c r="G93">
+        <v>0.01705991593915994</v>
+      </c>
+      <c r="H93">
+        <v>0.003338029152477531</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1348028072689607</v>
+        <v>-0.1295466244822412</v>
       </c>
       <c r="C94">
-        <v>-0.04367410173147627</v>
+        <v>0.008555173115489357</v>
       </c>
       <c r="D94">
-        <v>0.04247937255971979</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04816428321581114</v>
+      </c>
+      <c r="E94">
+        <v>0.0189083242048005</v>
+      </c>
+      <c r="F94">
+        <v>0.01494019026645142</v>
+      </c>
+      <c r="G94">
+        <v>-0.03257583073224896</v>
+      </c>
+      <c r="H94">
+        <v>0.1087270625814428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1212464396350408</v>
+        <v>-0.1292215471873253</v>
       </c>
       <c r="C95">
-        <v>-0.01762475334903947</v>
+        <v>-0.009198457512202109</v>
       </c>
       <c r="D95">
-        <v>0.05441869723246665</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05763247482587062</v>
+      </c>
+      <c r="E95">
+        <v>-0.006076803641986531</v>
+      </c>
+      <c r="F95">
+        <v>0.05000201493148765</v>
+      </c>
+      <c r="G95">
+        <v>0.02318780666836548</v>
+      </c>
+      <c r="H95">
+        <v>-0.09760100415068421</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2186765926365137</v>
+        <v>-0.194292793430755</v>
       </c>
       <c r="C97">
-        <v>-0.03483467235117783</v>
+        <v>-0.01738034336488991</v>
       </c>
       <c r="D97">
-        <v>-0.09153242678277146</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06637011652649751</v>
+      </c>
+      <c r="E97">
+        <v>0.07027105153840837</v>
+      </c>
+      <c r="F97">
+        <v>-0.9361754345914609</v>
+      </c>
+      <c r="G97">
+        <v>0.04256619927177074</v>
+      </c>
+      <c r="H97">
+        <v>-0.02107497277658129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.242600215338857</v>
+        <v>-0.2733753002832412</v>
       </c>
       <c r="C98">
-        <v>-0.05050634759116089</v>
+        <v>0.01021782822828412</v>
       </c>
       <c r="D98">
-        <v>0.01455554353011311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04405131999646448</v>
+      </c>
+      <c r="E98">
+        <v>0.196398798615133</v>
+      </c>
+      <c r="F98">
+        <v>0.04221081461609365</v>
+      </c>
+      <c r="G98">
+        <v>-0.3357094348119075</v>
+      </c>
+      <c r="H98">
+        <v>-0.1708397938059435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4071031308766114</v>
+        <v>-0.2628879292441462</v>
       </c>
       <c r="C99">
-        <v>0.8944630633185122</v>
+        <v>-0.9201915473011687</v>
       </c>
       <c r="D99">
-        <v>-0.05012091315321994</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.2153548067328697</v>
+      </c>
+      <c r="E99">
+        <v>-0.06901404693089605</v>
+      </c>
+      <c r="F99">
+        <v>0.0801706464164951</v>
+      </c>
+      <c r="G99">
+        <v>0.02178093545816447</v>
+      </c>
+      <c r="H99">
+        <v>0.07339802105658179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04506865980460217</v>
+        <v>-0.04726037794912237</v>
       </c>
       <c r="C101">
-        <v>-0.03200892669065252</v>
+        <v>0.02345683927329469</v>
       </c>
       <c r="D101">
-        <v>0.002431628056059424</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01314531525338889</v>
+      </c>
+      <c r="E101">
+        <v>-0.05742133976922614</v>
+      </c>
+      <c r="F101">
+        <v>0.01223219481760433</v>
+      </c>
+      <c r="G101">
+        <v>0.01059673031483767</v>
+      </c>
+      <c r="H101">
+        <v>0.06961871179556597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
